--- a/Hybrid Keyword Driven/target/classes/dataEngine/DataEngineSecond.xlsx
+++ b/Hybrid Keyword Driven/target/classes/dataEngine/DataEngineSecond.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Test Case ID</t>
   </si>

--- a/Hybrid Keyword Driven/target/classes/dataEngine/DataEngineSecond.xlsx
+++ b/Hybrid Keyword Driven/target/classes/dataEngine/DataEngineSecond.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView activeTab="1" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" r:id="rId1" sheetId="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>facebook</t>
+  </si>
+  <si>
+    <t>waitFor</t>
   </si>
 </sst>
 </file>
@@ -203,18 +206,18 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Test Cases"/>
-      <sheetName val="scenario name"/>
-      <sheetName val="scenario steps"/>
       <sheetName val="Test Steps"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
       <sheetName val="Test Data"/>
       <sheetName val="Settings"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData refreshError="1" sheetId="0"/>
-      <sheetData refreshError="1" sheetId="1"/>
-      <sheetData refreshError="1" sheetId="2"/>
-      <sheetData refreshError="1" sheetId="3"/>
-      <sheetData refreshError="1" sheetId="4"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5">
         <row r="2">
           <cell r="A2" t="str">
@@ -233,24 +236,32 @@
           </cell>
         </row>
         <row r="4">
+          <cell r="A4"/>
           <cell r="D4" t="str">
             <v>click</v>
           </cell>
         </row>
         <row r="5">
+          <cell r="A5"/>
           <cell r="D5" t="str">
             <v>input</v>
           </cell>
         </row>
         <row r="6">
+          <cell r="A6"/>
           <cell r="D6" t="str">
             <v>closeBrowser</v>
           </cell>
         </row>
         <row r="7">
+          <cell r="A7"/>
           <cell r="D7" t="str">
             <v>waitFor</v>
           </cell>
+        </row>
+        <row r="8">
+          <cell r="A8"/>
+          <cell r="D8"/>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -547,7 +558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -588,10 +599,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -690,28 +701,50 @@
       <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="E2:E4" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="E2:E5" type="list">
       <formula1>INDIRECT(D2)</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F2:F4" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F2:F5" type="list">
       <formula1>Action_Keywords</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D4" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D5" type="list">
       <formula1>Page_Name</formula1>
     </dataValidation>
   </dataValidations>
